--- a/rawTestingMaterial.xlsx
+++ b/rawTestingMaterial.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E7E0E7-0A08-45C1-885E-569FCF4FC4E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0409273F-CAEC-42B9-AE2D-CC12E4522447}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="162">
   <si>
     <t>name01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,179 @@
   <si>
     <t>politics</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teacher01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teacher02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teacher03</t>
+  </si>
+  <si>
+    <t>Teacher04</t>
+  </si>
+  <si>
+    <t>Teacher05</t>
+  </si>
+  <si>
+    <t>Teacher06</t>
+  </si>
+  <si>
+    <t>Teacher07</t>
+  </si>
+  <si>
+    <t>Teacher08</t>
+  </si>
+  <si>
+    <t>Teacher09</t>
+  </si>
+  <si>
+    <t>Teacher10</t>
+  </si>
+  <si>
+    <t>Teacher11</t>
+  </si>
+  <si>
+    <t>Teacher12</t>
+  </si>
+  <si>
+    <t>Teacher13</t>
+  </si>
+  <si>
+    <t>Teacher14</t>
+  </si>
+  <si>
+    <t>Teacher15</t>
+  </si>
+  <si>
+    <t>Teacher16</t>
+  </si>
+  <si>
+    <t>Teacher17</t>
+  </si>
+  <si>
+    <t>Teacher18</t>
+  </si>
+  <si>
+    <t>Teacher19</t>
+  </si>
+  <si>
+    <t>Teacher20</t>
+  </si>
+  <si>
+    <t>Maths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teacher21</t>
+  </si>
+  <si>
+    <t>Teacher22</t>
+  </si>
+  <si>
+    <t>Teacher23</t>
+  </si>
+  <si>
+    <t>Teacher24</t>
+  </si>
+  <si>
+    <t>Teacher25</t>
+  </si>
+  <si>
+    <t>Teacher26</t>
+  </si>
+  <si>
+    <t>Teacher27</t>
+  </si>
+  <si>
+    <t>Teacher28</t>
+  </si>
+  <si>
+    <t>Teacher29</t>
+  </si>
+  <si>
+    <t>Teacher30</t>
+  </si>
+  <si>
+    <t>Teacher31</t>
+  </si>
+  <si>
+    <t>Teacher32</t>
+  </si>
+  <si>
+    <t>Teacher33</t>
+  </si>
+  <si>
+    <t>Teacher34</t>
+  </si>
+  <si>
+    <t>Teacher35</t>
+  </si>
+  <si>
+    <t>Teacher36</t>
+  </si>
+  <si>
+    <t>physics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geography</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>politics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teacher37</t>
+  </si>
+  <si>
+    <t>Teacher38</t>
+  </si>
+  <si>
+    <t>Teacher39</t>
+  </si>
+  <si>
+    <t>Teacher40</t>
+  </si>
+  <si>
+    <t>Teacher41</t>
+  </si>
+  <si>
+    <t>Teacher42</t>
+  </si>
+  <si>
+    <t>Teacher43</t>
+  </si>
+  <si>
+    <t>Teacher44</t>
+  </si>
+  <si>
+    <t>Teacher45</t>
   </si>
 </sst>
 </file>
@@ -678,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G100" sqref="A1:G100"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2986,6 +3159,771 @@
         <v>106</v>
       </c>
     </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104">
+        <v>2010291</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105">
+        <v>2010292</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>128</v>
+      </c>
+      <c r="C106">
+        <v>2010293</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107">
+        <v>2010294</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108">
+        <v>2010295</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="s">
+        <v>147</v>
+      </c>
+      <c r="C109">
+        <v>2010296</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110">
+        <v>2010297</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111">
+        <v>2010298</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112">
+        <v>2010299</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113">
+        <v>2010300</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114">
+        <v>2010301</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115">
+        <v>2010302</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116">
+        <v>2010303</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117">
+        <v>2010304</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118">
+        <v>2010305</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119">
+        <v>2010306</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120">
+        <v>2010307</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121">
+        <v>2010308</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
+        <v>152</v>
+      </c>
+      <c r="C122">
+        <v>2010309</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123">
+        <v>2010310</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124">
+        <v>2010311</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="s">
+        <v>147</v>
+      </c>
+      <c r="C125">
+        <v>2010312</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="s">
+        <v>147</v>
+      </c>
+      <c r="C126">
+        <v>2010313</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
+        <v>147</v>
+      </c>
+      <c r="C127">
+        <v>2010314</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128">
+        <v>2010315</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="s">
+        <v>148</v>
+      </c>
+      <c r="C129">
+        <v>2010316</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="s">
+        <v>148</v>
+      </c>
+      <c r="C130">
+        <v>2010317</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="s">
+        <v>148</v>
+      </c>
+      <c r="C131">
+        <v>2010318</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="s">
+        <v>148</v>
+      </c>
+      <c r="C132">
+        <v>2010319</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="s">
+        <v>149</v>
+      </c>
+      <c r="C133">
+        <v>2010320</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="s">
+        <v>149</v>
+      </c>
+      <c r="C134">
+        <v>2010321</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="s">
+        <v>149</v>
+      </c>
+      <c r="C135">
+        <v>2010322</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="s">
+        <v>149</v>
+      </c>
+      <c r="C136">
+        <v>2010323</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137">
+        <v>2010324</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138">
+        <v>2010325</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139">
+        <v>2010326</v>
+      </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
+      <c r="E139" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" t="s">
+        <v>150</v>
+      </c>
+      <c r="C140">
+        <v>2010327</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" t="s">
+        <v>151</v>
+      </c>
+      <c r="C141">
+        <v>2010328</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142">
+        <v>2010329</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143">
+        <v>2010330</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="E143" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>157</v>
+      </c>
+      <c r="B144" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144">
+        <v>2010331</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145">
+        <v>2010332</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>159</v>
+      </c>
+      <c r="B146" t="s">
+        <v>152</v>
+      </c>
+      <c r="C146">
+        <v>2010333</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>160</v>
+      </c>
+      <c r="B147" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147">
+        <v>2010334</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>161</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148">
+        <v>2010335</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
